--- a/xlsForms/Encuesta 5 SERVICIOS PRESTADOS AL SECTOR HIDROCARBUROS.xlsx
+++ b/xlsForms/Encuesta 5 SERVICIOS PRESTADOS AL SECTOR HIDROCARBUROS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\informesCenso\xlsForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9183EF6F-ED6E-42D4-8791-7D9536CFB71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECC57F6-22B5-4C62-A94D-05E618BD9D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="266">
   <si>
     <t>type</t>
   </si>
@@ -804,6 +804,27 @@
   </si>
   <si>
     <t>https://docs.google.com/spreadsheets/d/1zerdIpEQLlopiVO-06P9PHYzNn_5T40pYgn_xEk6Y3I/edit?usp=drive_link</t>
+  </si>
+  <si>
+    <t>foto_act</t>
+  </si>
+  <si>
+    <t>Fotografía de la actividad</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>img_act</t>
+  </si>
+  <si>
+    <t>Inserte una fotografía de la actividad</t>
+  </si>
+  <si>
+    <t>max-pixels=1024</t>
+  </si>
+  <si>
+    <t>parameters</t>
   </si>
 </sst>
 </file>
@@ -852,7 +873,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -875,11 +896,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -906,6 +938,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1186,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,9 +1238,10 @@
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="120.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1233,8 +1269,11 @@
       <c r="I1" s="5" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1245,7 +1284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1259,7 +1298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1273,7 +1312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1287,12 +1326,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1303,7 +1342,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1317,7 +1356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1331,7 +1370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1345,7 +1384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1365,7 +1404,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1379,12 +1418,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1395,7 +1434,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -1412,7 +1451,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2242,7 +2281,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>217</v>
       </c>
@@ -2263,7 +2302,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>73</v>
       </c>
@@ -2276,7 +2315,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>74</v>
       </c>
@@ -2297,7 +2336,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>19</v>
       </c>
@@ -2305,12 +2344,12 @@
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>7</v>
       </c>
@@ -2325,7 +2364,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>74</v>
       </c>
@@ -2344,7 +2383,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>74</v>
       </c>
@@ -2363,7 +2402,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>74</v>
       </c>
@@ -2382,7 +2421,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>74</v>
       </c>
@@ -2401,7 +2440,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
@@ -2423,12 +2462,63 @@
         <v>254</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+    </row>
+    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="J78" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
